--- a/PS-250/Lab5/Lab5Values.xlsx
+++ b/PS-250/Lab5/Lab5Values.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Fall_2018_Homework/PS-250/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B59B43B-97F6-4441-846C-C48719E5967C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF4457-9EB9-A14E-A095-315759C13362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="27920" windowHeight="17440" xr2:uid="{9615A9AE-ACC7-5B4B-A4F2-29C7ED55F013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Plate Side A (cm)</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Plate Theory</t>
+  </si>
+  <si>
+    <t>% diff Sm Ring</t>
+  </si>
+  <si>
+    <t>% diff lg ring</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -621,6 +627,22 @@
       <c r="B13" s="1">
         <v>2.65</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <f xml:space="preserve"> ((F1 - F9) /F9) * 100</f>
+        <v>-52.166812385555659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <f xml:space="preserve"> ((F2 - F10) / F10) * 100</f>
+        <v>114.70549063804924</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
